--- a/results/1-2021/fim-no-addons.xlsx
+++ b/results/1-2021/fim-no-addons.xlsx
@@ -915,124 +915,124 @@
         <v>1871.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1909.14084223001</v>
+        <v>1890.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1940.80377793491</v>
+        <v>1921.95543744052</v>
       </c>
       <c r="G4" t="n">
-        <v>1971.66535623232</v>
+        <v>1952.51729994875</v>
       </c>
       <c r="H4" t="n">
-        <v>2004.6514634705</v>
+        <v>1985.18305878908</v>
       </c>
       <c r="I4" t="n">
-        <v>2026.74470083257</v>
+        <v>2007.0617351197</v>
       </c>
       <c r="J4" t="n">
-        <v>2046.96499820739</v>
+        <v>2027.08566073651</v>
       </c>
       <c r="K4" t="n">
-        <v>2066.98029717564</v>
+        <v>2046.9065788125</v>
       </c>
       <c r="L4" t="n">
-        <v>2087.90877086404</v>
+        <v>2067.63180320668</v>
       </c>
       <c r="M4" t="n">
-        <v>2109.14474216229</v>
+        <v>2088.66153891207</v>
       </c>
       <c r="N4" t="n">
-        <v>2130.49253077321</v>
+        <v>2109.80200600337</v>
       </c>
       <c r="O4" t="n">
-        <v>2150.95509899215</v>
+        <v>2130.06584962296</v>
       </c>
       <c r="P4" t="n">
-        <v>2172.88061038521</v>
+        <v>2151.77842887473</v>
       </c>
       <c r="Q4" t="n">
-        <v>2196.05474843644</v>
+        <v>2174.72750860239</v>
       </c>
       <c r="R4" t="n">
-        <v>2220.41228638011</v>
+        <v>2198.84849549747</v>
       </c>
       <c r="S4" t="n">
-        <v>2244.34119129188</v>
+        <v>2222.54501207995</v>
       </c>
       <c r="T4" t="n">
-        <v>2268.06509779708</v>
+        <v>2246.03852112161</v>
       </c>
       <c r="U4" t="n">
-        <v>2292.22695544357</v>
+        <v>2269.96572809137</v>
       </c>
       <c r="V4" t="n">
-        <v>2317.55357676373</v>
+        <v>2295.04638699758</v>
       </c>
       <c r="W4" t="n">
-        <v>2343.17837758435</v>
+        <v>2320.42232959953</v>
       </c>
       <c r="X4" t="n">
-        <v>2369.05476735848</v>
+        <v>2346.04741781975</v>
       </c>
       <c r="Y4" t="n">
-        <v>2395.15479175796</v>
+        <v>2371.89396881177</v>
       </c>
       <c r="Z4" t="n">
-        <v>2421.46913267339</v>
+        <v>2397.9527549601</v>
       </c>
       <c r="AA4" t="n">
-        <v>2447.95119955782</v>
+        <v>2424.17763818728</v>
       </c>
       <c r="AB4" t="n">
-        <v>2474.63826484882</v>
+        <v>2450.60552895527</v>
       </c>
       <c r="AC4" t="n">
-        <v>2501.57691909334</v>
+        <v>2477.28256534153</v>
       </c>
       <c r="AD4" t="n">
-        <v>2528.77648040075</v>
+        <v>2504.21797496156</v>
       </c>
       <c r="AE4" t="n">
-        <v>2556.21831255229</v>
+        <v>2531.39330258438</v>
       </c>
       <c r="AF4" t="n">
-        <v>2583.98627853245</v>
+        <v>2558.8915967494</v>
       </c>
       <c r="AG4" t="n">
-        <v>2611.80083505956</v>
+        <v>2586.43602899187</v>
       </c>
       <c r="AH4" t="n">
-        <v>2639.0563050233</v>
+        <v>2613.42680430485</v>
       </c>
       <c r="AI4" t="n">
-        <v>2665.5756443453</v>
+        <v>2639.688597994</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2691.86203093256</v>
+        <v>2665.71970129585</v>
       </c>
       <c r="AK4" t="n">
-        <v>2718.14841751982</v>
+        <v>2691.7508045977</v>
       </c>
       <c r="AL4" t="n">
-        <v>2744.14594271601</v>
+        <v>2717.49585181931</v>
       </c>
       <c r="AM4" t="n">
-        <v>2770.36710253755</v>
+        <v>2743.46236181272</v>
       </c>
       <c r="AN4" t="n">
-        <v>2796.75598832809</v>
+        <v>2769.59496888498</v>
       </c>
       <c r="AO4" t="n">
-        <v>2823.32191819703</v>
+        <v>2795.90290065159</v>
       </c>
       <c r="AP4" t="n">
-        <v>2850.1208008007</v>
+        <v>2822.44152280548</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2877.0687731546</v>
+        <v>2849.12778680723</v>
       </c>
       <c r="AR4" t="n">
-        <v>2904.15651714934</v>
+        <v>2875.95246504137</v>
       </c>
     </row>
     <row r="5">
@@ -1049,124 +1049,124 @@
         <v>90.2</v>
       </c>
       <c r="E5" t="n">
-        <v>92.02399613592</v>
+        <v>69.0333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>93.5502061506593</v>
+        <v>70.1782451944587</v>
       </c>
       <c r="G5" t="n">
-        <v>95.0377893080508</v>
+        <v>71.2941804752259</v>
       </c>
       <c r="H5" t="n">
-        <v>96.6277785523643</v>
+        <v>72.4869373876402</v>
       </c>
       <c r="I5" t="n">
-        <v>97.692712026451</v>
+        <v>73.2858149693731</v>
       </c>
       <c r="J5" t="n">
-        <v>98.667366450225</v>
+        <v>74.0169682179434</v>
       </c>
       <c r="K5" t="n">
-        <v>99.6321395849102</v>
+        <v>74.7407088529338</v>
       </c>
       <c r="L5" t="n">
-        <v>100.640929370991</v>
+        <v>75.4974693120531</v>
       </c>
       <c r="M5" t="n">
-        <v>101.664541090706</v>
+        <v>76.2653486915424</v>
       </c>
       <c r="N5" t="n">
-        <v>102.69354260447</v>
+        <v>77.0372713148026</v>
       </c>
       <c r="O5" t="n">
-        <v>103.679874915349</v>
+        <v>77.7771849248766</v>
       </c>
       <c r="P5" t="n">
-        <v>104.736723698363</v>
+        <v>78.5699976409531</v>
       </c>
       <c r="Q5" t="n">
-        <v>105.853758514918</v>
+        <v>79.4079599124712</v>
       </c>
       <c r="R5" t="n">
-        <v>107.027835318488</v>
+        <v>80.2887131805647</v>
       </c>
       <c r="S5" t="n">
-        <v>108.181251244871</v>
+        <v>81.1539673475364</v>
       </c>
       <c r="T5" t="n">
-        <v>109.324785882165</v>
+        <v>82.0118089009282</v>
       </c>
       <c r="U5" t="n">
-        <v>110.48943054615</v>
+        <v>82.8854864924226</v>
       </c>
       <c r="V5" t="n">
-        <v>111.71021889814</v>
+        <v>83.8012812065305</v>
       </c>
       <c r="W5" t="n">
-        <v>112.945380034259</v>
+        <v>84.7278579040275</v>
       </c>
       <c r="X5" t="n">
-        <v>114.192668206987</v>
+        <v>85.6635319000089</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.450735967813</v>
+        <v>86.6072923835322</v>
       </c>
       <c r="Z5" t="n">
-        <v>116.719134167231</v>
+        <v>87.5588024176164</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.995617057722</v>
+        <v>88.5163773173569</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.281981237302</v>
+        <v>89.4813648306774</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.580472453492</v>
+        <v>90.4554496424824</v>
       </c>
       <c r="AD5" t="n">
-        <v>121.891539855794</v>
+        <v>91.4389686897528</v>
       </c>
       <c r="AE5" t="n">
-        <v>123.214285145202</v>
+        <v>92.4312480985268</v>
       </c>
       <c r="AF5" t="n">
-        <v>124.552750667251</v>
+        <v>93.4353203016326</v>
       </c>
       <c r="AG5" t="n">
-        <v>125.89346193682</v>
+        <v>94.441077189643</v>
       </c>
       <c r="AH5" t="n">
-        <v>127.207224236147</v>
+        <v>95.4266178587988</v>
       </c>
       <c r="AI5" t="n">
-        <v>128.485503724654</v>
+        <v>96.385540506463</v>
       </c>
       <c r="AJ5" t="n">
-        <v>129.752554475561</v>
+        <v>97.3360397296044</v>
       </c>
       <c r="AK5" t="n">
-        <v>131.019605226467</v>
+        <v>98.2865389527458</v>
       </c>
       <c r="AL5" t="n">
-        <v>132.272732342748</v>
+        <v>99.2265931294791</v>
       </c>
       <c r="AM5" t="n">
-        <v>133.536639047126</v>
+        <v>100.174733793754</v>
       </c>
       <c r="AN5" t="n">
-        <v>134.808630442577</v>
+        <v>101.128939323686</v>
       </c>
       <c r="AO5" t="n">
-        <v>136.089155678604</v>
+        <v>102.089546656254</v>
       </c>
       <c r="AP5" t="n">
-        <v>137.380909652233</v>
+        <v>103.058577413346</v>
       </c>
       <c r="AQ5" t="n">
-        <v>138.679850017926</v>
+        <v>104.032999162132</v>
       </c>
       <c r="AR5" t="n">
-        <v>139.98552762618</v>
+        <v>105.012474965631</v>
       </c>
     </row>
     <row r="6">

--- a/results/1-2021/fim-no-addons.xlsx
+++ b/results/1-2021/fim-no-addons.xlsx
@@ -647,124 +647,124 @@
         <v>197.628</v>
       </c>
       <c r="E2" t="n">
-        <v>205.169857046954</v>
+        <v>161.407</v>
       </c>
       <c r="F2" t="n">
-        <v>212.711714093908</v>
+        <v>167.340174287386</v>
       </c>
       <c r="G2" t="n">
-        <v>220.253571140862</v>
+        <v>173.273348574773</v>
       </c>
       <c r="H2" t="n">
-        <v>227.795428187816</v>
+        <v>179.206522862159</v>
       </c>
       <c r="I2" t="n">
-        <v>225.52802833066</v>
+        <v>177.422760792956</v>
       </c>
       <c r="J2" t="n">
-        <v>223.260628473503</v>
+        <v>175.638998723754</v>
       </c>
       <c r="K2" t="n">
-        <v>220.993228616347</v>
+        <v>173.855236654552</v>
       </c>
       <c r="L2" t="n">
-        <v>218.725828759191</v>
+        <v>172.071474585349</v>
       </c>
       <c r="M2" t="n">
-        <v>216.480682207171</v>
+        <v>170.305219177573</v>
       </c>
       <c r="N2" t="n">
-        <v>214.235535655151</v>
+        <v>168.538963769797</v>
       </c>
       <c r="O2" t="n">
-        <v>211.990389103131</v>
+        <v>166.77270836202</v>
       </c>
       <c r="P2" t="n">
-        <v>209.745242551111</v>
+        <v>165.006452954244</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.108755492832</v>
+        <v>166.865827127796</v>
       </c>
       <c r="R2" t="n">
-        <v>214.472268434554</v>
+        <v>168.725201301348</v>
       </c>
       <c r="S2" t="n">
-        <v>216.835781376275</v>
+        <v>170.584575474899</v>
       </c>
       <c r="T2" t="n">
-        <v>219.199294317997</v>
+        <v>172.443949648451</v>
       </c>
       <c r="U2" t="n">
-        <v>222.193317571915</v>
+        <v>174.79934589574</v>
       </c>
       <c r="V2" t="n">
-        <v>225.187340825834</v>
+        <v>177.154742143029</v>
       </c>
       <c r="W2" t="n">
-        <v>228.181364079752</v>
+        <v>179.510138390319</v>
       </c>
       <c r="X2" t="n">
-        <v>231.175387333671</v>
+        <v>181.865534637608</v>
       </c>
       <c r="Y2" t="n">
-        <v>234.290956020882</v>
+        <v>184.316550602305</v>
       </c>
       <c r="Z2" t="n">
-        <v>237.406524708093</v>
+        <v>186.767566567001</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.522093395304</v>
+        <v>189.218582531698</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.637662082515</v>
+        <v>191.669598496395</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.873822489941</v>
+        <v>194.21548389301</v>
       </c>
       <c r="AD2" t="n">
-        <v>250.109982897367</v>
+        <v>196.761369289625</v>
       </c>
       <c r="AE2" t="n">
-        <v>253.346143304793</v>
+        <v>199.30725468624</v>
       </c>
       <c r="AF2" t="n">
-        <v>256.58230371222</v>
+        <v>201.853140082855</v>
       </c>
       <c r="AG2" t="n">
-        <v>259.940751329776</v>
+        <v>204.495228752259</v>
       </c>
       <c r="AH2" t="n">
-        <v>263.299198947332</v>
+        <v>207.137317421663</v>
       </c>
       <c r="AI2" t="n">
-        <v>266.657646564889</v>
+        <v>209.779406091067</v>
       </c>
       <c r="AJ2" t="n">
-        <v>270.016094182445</v>
+        <v>212.42149476047</v>
       </c>
       <c r="AK2" t="n">
-        <v>273.571960406997</v>
+        <v>215.218892526239</v>
       </c>
       <c r="AL2" t="n">
-        <v>277.127826631549</v>
+        <v>218.016290292008</v>
       </c>
       <c r="AM2" t="n">
-        <v>280.683692856101</v>
+        <v>220.813688057777</v>
       </c>
       <c r="AN2" t="n">
-        <v>284.239559080653</v>
+        <v>223.611085823546</v>
       </c>
       <c r="AO2" t="n">
-        <v>288.121383241393</v>
+        <v>226.664914496678</v>
       </c>
       <c r="AP2" t="n">
-        <v>292.003207402133</v>
+        <v>229.718743169811</v>
       </c>
       <c r="AQ2" t="n">
-        <v>295.885031562873</v>
+        <v>232.772571842944</v>
       </c>
       <c r="AR2" t="n">
-        <v>299.766855723613</v>
+        <v>235.826400516077</v>
       </c>
     </row>
     <row r="3">
@@ -775,130 +775,130 @@
         <v>186.4</v>
       </c>
       <c r="C3" t="n">
-        <v>393.066666666667</v>
+        <v>1228</v>
       </c>
       <c r="D3" t="n">
-        <v>224.8</v>
+        <v>920</v>
       </c>
       <c r="E3" t="n">
-        <v>200.979969093436</v>
+        <v>447.5</v>
       </c>
       <c r="F3" t="n">
-        <v>177.165616311872</v>
+        <v>425.541827611359</v>
       </c>
       <c r="G3" t="n">
-        <v>153.35695585062</v>
+        <v>403.590662097718</v>
       </c>
       <c r="H3" t="n">
-        <v>131.842328936908</v>
+        <v>384.463302243452</v>
       </c>
       <c r="I3" t="n">
-        <v>146.585772718161</v>
+        <v>400.400073851892</v>
       </c>
       <c r="J3" t="n">
-        <v>163.697978189764</v>
+        <v>419.25263658906</v>
       </c>
       <c r="K3" t="n">
-        <v>181.402509572863</v>
+        <v>438.83431388642</v>
       </c>
       <c r="L3" t="n">
-        <v>198.132693772556</v>
+        <v>457.216633356756</v>
       </c>
       <c r="M3" t="n">
-        <v>213.733597036872</v>
+        <v>474.230585805672</v>
       </c>
       <c r="N3" t="n">
-        <v>229.061683089833</v>
+        <v>490.908718063022</v>
       </c>
       <c r="O3" t="n">
-        <v>245.247194664192</v>
+        <v>508.642285208155</v>
       </c>
       <c r="P3" t="n">
-        <v>261.354758463878</v>
+        <v>526.279903727124</v>
       </c>
       <c r="Q3" t="n">
-        <v>261.596474139523</v>
+        <v>528.882627191482</v>
       </c>
       <c r="R3" t="n">
-        <v>262.305876463203</v>
+        <v>532.061042412812</v>
       </c>
       <c r="S3" t="n">
-        <v>263.443991547582</v>
+        <v>535.767175078031</v>
       </c>
       <c r="T3" t="n">
-        <v>265.20568882934</v>
+        <v>540.240896752548</v>
       </c>
       <c r="U3" t="n">
-        <v>264.90303841629</v>
+        <v>542.788491933077</v>
       </c>
       <c r="V3" t="n">
-        <v>264.522440228567</v>
+        <v>545.240138487444</v>
       </c>
       <c r="W3" t="n">
-        <v>264.453633139534</v>
+        <v>548.075579546459</v>
       </c>
       <c r="X3" t="n">
-        <v>264.735591036528</v>
+        <v>551.342789423203</v>
       </c>
       <c r="Y3" t="n">
-        <v>264.908849956199</v>
+        <v>554.594743939063</v>
       </c>
       <c r="Z3" t="n">
-        <v>264.965187213862</v>
+        <v>557.70277551568</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.606132781569</v>
+        <v>561.530421788512</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.441947785957</v>
+        <v>565.597939626749</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.016467662705</v>
+        <v>569.461436018988</v>
       </c>
       <c r="AD3" t="n">
-        <v>267.474065877444</v>
+        <v>573.181009471984</v>
       </c>
       <c r="AE3" t="n">
-        <v>268.126533528865</v>
+        <v>577.140454490384</v>
       </c>
       <c r="AF3" t="n">
-        <v>268.74002729295</v>
+        <v>581.051925195704</v>
       </c>
       <c r="AG3" t="n">
-        <v>269.047386443788</v>
+        <v>584.705833622461</v>
       </c>
       <c r="AH3" t="n">
-        <v>269.510641143971</v>
+        <v>588.551639301541</v>
       </c>
       <c r="AI3" t="n">
-        <v>269.973895844154</v>
+        <v>592.397444980622</v>
       </c>
       <c r="AJ3" t="n">
-        <v>270.398176657001</v>
+        <v>596.195276346622</v>
       </c>
       <c r="AK3" t="n">
-        <v>270.178455758571</v>
+        <v>599.392930413247</v>
       </c>
       <c r="AL3" t="n">
-        <v>269.958734860141</v>
+        <v>602.590584479872</v>
       </c>
       <c r="AM3" t="n">
-        <v>269.816961736383</v>
+        <v>605.88418717266</v>
       </c>
       <c r="AN3" t="n">
-        <v>269.51929306328</v>
+        <v>608.985892613123</v>
       </c>
       <c r="AO3" t="n">
-        <v>268.093963122686</v>
+        <v>611.017434682727</v>
       </c>
       <c r="AP3" t="n">
-        <v>266.824528731437</v>
+        <v>613.240874004655</v>
       </c>
       <c r="AQ3" t="n">
-        <v>265.360224903508</v>
+        <v>615.224441761177</v>
       </c>
       <c r="AR3" t="n">
-        <v>263.97386885025</v>
+        <v>617.303958143862</v>
       </c>
     </row>
     <row r="4">
@@ -960,7 +960,7 @@
         <v>2222.54501207995</v>
       </c>
       <c r="T4" t="n">
-        <v>2246.03852112161</v>
+        <v>2246.0385211216</v>
       </c>
       <c r="U4" t="n">
         <v>2269.96572809137</v>
@@ -1023,7 +1023,7 @@
         <v>2769.59496888498</v>
       </c>
       <c r="AO4" t="n">
-        <v>2795.90290065159</v>
+        <v>2795.90290065158</v>
       </c>
       <c r="AP4" t="n">
         <v>2822.44152280548</v>
@@ -1106,7 +1106,7 @@
         <v>84.7278579040275</v>
       </c>
       <c r="X5" t="n">
-        <v>85.6635319000089</v>
+        <v>85.663531900009</v>
       </c>
       <c r="Y5" t="n">
         <v>86.6072923835322</v>
@@ -1183,124 +1183,124 @@
         <v>1328.772</v>
       </c>
       <c r="E6" t="n">
-        <v>1334.53162523004</v>
+        <v>1372.793</v>
       </c>
       <c r="F6" t="n">
-        <v>1340.29125046007</v>
+        <v>1378.35798704297</v>
       </c>
       <c r="G6" t="n">
-        <v>1346.05087569011</v>
+        <v>1383.92297408593</v>
       </c>
       <c r="H6" t="n">
-        <v>1351.81050092014</v>
+        <v>1389.4879611289</v>
       </c>
       <c r="I6" t="n">
-        <v>1386.19995908941</v>
+        <v>1425.27167973107</v>
       </c>
       <c r="J6" t="n">
-        <v>1420.58941725868</v>
+        <v>1461.05539833324</v>
       </c>
       <c r="K6" t="n">
-        <v>1454.97887542794</v>
+        <v>1496.8391169354</v>
       </c>
       <c r="L6" t="n">
-        <v>1489.36833359721</v>
+        <v>1532.62283553757</v>
       </c>
       <c r="M6" t="n">
-        <v>1493.57962526479</v>
+        <v>1537.11120648388</v>
       </c>
       <c r="N6" t="n">
-        <v>1497.79091693238</v>
+        <v>1541.5995774302</v>
       </c>
       <c r="O6" t="n">
-        <v>1502.00220859996</v>
+        <v>1546.08794837651</v>
       </c>
       <c r="P6" t="n">
-        <v>1506.21350026754</v>
+        <v>1550.57631932282</v>
       </c>
       <c r="Q6" t="n">
-        <v>1517.68361533463</v>
+        <v>1562.34285068649</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.15373040171</v>
+        <v>1574.10938205015</v>
       </c>
       <c r="S6" t="n">
-        <v>1540.6238454688</v>
+        <v>1585.87591341382</v>
       </c>
       <c r="T6" t="n">
-        <v>1552.09396053588</v>
+        <v>1597.64244477749</v>
       </c>
       <c r="U6" t="n">
-        <v>1589.16190439731</v>
+        <v>1635.91932575868</v>
       </c>
       <c r="V6" t="n">
-        <v>1626.22984825873</v>
+        <v>1674.19620673988</v>
       </c>
       <c r="W6" t="n">
-        <v>1663.29779212015</v>
+        <v>1712.47308772108</v>
       </c>
       <c r="X6" t="n">
-        <v>1700.36573598158</v>
+        <v>1750.74996870228</v>
       </c>
       <c r="Y6" t="n">
-        <v>1728.05186986427</v>
+        <v>1779.29153417761</v>
       </c>
       <c r="Z6" t="n">
-        <v>1755.73800374697</v>
+        <v>1807.83309965293</v>
       </c>
       <c r="AA6" t="n">
-        <v>1783.42413762967</v>
+        <v>1836.37466512826</v>
       </c>
       <c r="AB6" t="n">
-        <v>1811.11027151237</v>
+        <v>1864.91623060358</v>
       </c>
       <c r="AC6" t="n">
-        <v>1840.63310774275</v>
+        <v>1895.35590123887</v>
       </c>
       <c r="AD6" t="n">
-        <v>1870.15594397313</v>
+        <v>1925.79557187416</v>
       </c>
       <c r="AE6" t="n">
-        <v>1899.67878020351</v>
+        <v>1956.23524250944</v>
       </c>
       <c r="AF6" t="n">
-        <v>1929.2016164339</v>
+        <v>1986.67491314473</v>
       </c>
       <c r="AG6" t="n">
-        <v>1977.25328134883</v>
+        <v>2036.32199282574</v>
       </c>
       <c r="AH6" t="n">
-        <v>2025.30494626377</v>
+        <v>2085.96907250676</v>
       </c>
       <c r="AI6" t="n">
-        <v>2073.3566111787</v>
+        <v>2135.61615218777</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2121.40827609363</v>
+        <v>2185.26323186878</v>
       </c>
       <c r="AK6" t="n">
-        <v>2120.16584706198</v>
+        <v>2183.78266846795</v>
       </c>
       <c r="AL6" t="n">
-        <v>2118.92341803032</v>
+        <v>2182.30210506712</v>
       </c>
       <c r="AM6" t="n">
-        <v>2117.68098899866</v>
+        <v>2180.82154166628</v>
       </c>
       <c r="AN6" t="n">
-        <v>2116.43855996701</v>
+        <v>2179.34097826545</v>
       </c>
       <c r="AO6" t="n">
-        <v>2165.42361822453</v>
+        <v>2229.92768006444</v>
       </c>
       <c r="AP6" t="n">
-        <v>2214.40867648205</v>
+        <v>2280.51438186343</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2263.39373473958</v>
+        <v>2331.10108366242</v>
       </c>
       <c r="AR6" t="n">
-        <v>2312.3787929971</v>
+        <v>2381.6877854614</v>
       </c>
     </row>
     <row r="7">
@@ -1311,130 +1311,130 @@
         <v>1574.4</v>
       </c>
       <c r="C7" t="n">
-        <v>3741.53333333333</v>
+        <v>2906.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2572.2</v>
+        <v>1877</v>
       </c>
       <c r="E7" t="n">
-        <v>2244.9398802406</v>
+        <v>1762.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1987.34216943321</v>
+        <v>1544.73515249899</v>
       </c>
       <c r="G7" t="n">
-        <v>1779.89745332213</v>
+        <v>1370.14840984824</v>
       </c>
       <c r="H7" t="n">
-        <v>1635.19809939684</v>
+        <v>1249.0804590205</v>
       </c>
       <c r="I7" t="n">
-        <v>1679.24444101956</v>
+        <v>1279.29500148861</v>
       </c>
       <c r="J7" t="n">
-        <v>1695.3594067102</v>
+        <v>1285.68541669433</v>
       </c>
       <c r="K7" t="n">
-        <v>1693.70985648663</v>
+        <v>1276.92354978821</v>
       </c>
       <c r="L7" t="n">
-        <v>1667.46215004896</v>
+        <v>1247.18063255755</v>
       </c>
       <c r="M7" t="n">
-        <v>1669.09023985341</v>
+        <v>1246.77812086698</v>
       </c>
       <c r="N7" t="n">
-        <v>1671.74522044366</v>
+        <v>1247.25149788398</v>
       </c>
       <c r="O7" t="n">
-        <v>1675.10249074623</v>
+        <v>1248.32389442376</v>
       </c>
       <c r="P7" t="n">
-        <v>1680.47196359246</v>
+        <v>1251.11260345721</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.58068834505</v>
+        <v>1264.66448641339</v>
       </c>
       <c r="R7" t="n">
-        <v>1714.01385908799</v>
+        <v>1277.64015412198</v>
       </c>
       <c r="S7" t="n">
-        <v>1727.29718293034</v>
+        <v>1287.92915313228</v>
       </c>
       <c r="T7" t="n">
-        <v>1738.64974723761</v>
+        <v>1296.5713066385</v>
       </c>
       <c r="U7" t="n">
-        <v>1778.59933491866</v>
+        <v>1325.18003050596</v>
       </c>
       <c r="V7" t="n">
-        <v>1812.19363936562</v>
+        <v>1348.36800185033</v>
       </c>
       <c r="W7" t="n">
-        <v>1840.15802007382</v>
+        <v>1366.75391761548</v>
       </c>
       <c r="X7" t="n">
-        <v>1861.88661582282</v>
+        <v>1379.82100716848</v>
       </c>
       <c r="Y7" t="n">
-        <v>1873.4796232083</v>
+        <v>1386.02444994422</v>
       </c>
       <c r="Z7" t="n">
-        <v>1886.64821201843</v>
+        <v>1393.57178828976</v>
       </c>
       <c r="AA7" t="n">
-        <v>1902.66177741132</v>
+        <v>1403.54575553932</v>
       </c>
       <c r="AB7" t="n">
-        <v>1920.88671211579</v>
+        <v>1415.40591500624</v>
       </c>
       <c r="AC7" t="n">
-        <v>1936.63857258967</v>
+        <v>1424.87323909239</v>
       </c>
       <c r="AD7" t="n">
-        <v>1952.6886575254</v>
+        <v>1434.59493437562</v>
       </c>
       <c r="AE7" t="n">
-        <v>1967.04823494385</v>
+        <v>1442.87470763081</v>
       </c>
       <c r="AF7" t="n">
-        <v>1980.96534032554</v>
+        <v>1450.77707340921</v>
       </c>
       <c r="AG7" t="n">
-        <v>2018.86620585503</v>
+        <v>1475.781974677</v>
       </c>
       <c r="AH7" t="n">
-        <v>2052.0278432496</v>
+        <v>1496.74454109932</v>
       </c>
       <c r="AI7" t="n">
-        <v>2081.29664760017</v>
+        <v>1514.38670719203</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2105.98806427815</v>
+        <v>1528.12458061021</v>
       </c>
       <c r="AK7" t="n">
-        <v>2079.63432503614</v>
+        <v>1507.48420345105</v>
       </c>
       <c r="AL7" t="n">
-        <v>2064.51981974885</v>
+        <v>1496.43035510165</v>
       </c>
       <c r="AM7" t="n">
-        <v>2062.01269284952</v>
+        <v>1496.12999730317</v>
       </c>
       <c r="AN7" t="n">
-        <v>2071.43211000721</v>
+        <v>1506.00241094659</v>
       </c>
       <c r="AO7" t="n">
-        <v>2136.23066046707</v>
+        <v>1554.01487176894</v>
       </c>
       <c r="AP7" t="n">
-        <v>2190.8787707204</v>
+        <v>1593.3694927542</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2230.08384530058</v>
+        <v>1619.55194319943</v>
       </c>
       <c r="AR7" t="n">
-        <v>2256.97420429636</v>
+        <v>1635.23053046241</v>
       </c>
     </row>
     <row r="8">
@@ -1451,124 +1451,124 @@
         <v>1212.9</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.87213938353</v>
+        <v>609.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1220.99535855343</v>
+        <v>611.966569929853</v>
       </c>
       <c r="G8" t="n">
-        <v>1225.4081473139</v>
+        <v>614.178273015085</v>
       </c>
       <c r="H8" t="n">
-        <v>1230.17345557591</v>
+        <v>616.566659941648</v>
       </c>
       <c r="I8" t="n">
-        <v>1235.31016831277</v>
+        <v>619.141195915327</v>
       </c>
       <c r="J8" t="n">
-        <v>1240.6420257737</v>
+        <v>621.813539015457</v>
       </c>
       <c r="K8" t="n">
-        <v>1246.06201311002</v>
+        <v>624.53005307592</v>
       </c>
       <c r="L8" t="n">
-        <v>1251.55124534843</v>
+        <v>627.281272890931</v>
       </c>
       <c r="M8" t="n">
-        <v>1257.10972248893</v>
+        <v>630.067198460488</v>
       </c>
       <c r="N8" t="n">
-        <v>1262.75003451372</v>
+        <v>632.894139921783</v>
       </c>
       <c r="O8" t="n">
-        <v>1268.4155265029</v>
+        <v>635.733701657459</v>
       </c>
       <c r="P8" t="n">
-        <v>1274.16285337638</v>
+        <v>638.614279284872</v>
       </c>
       <c r="Q8" t="n">
-        <v>1279.99201513414</v>
+        <v>641.535872804023</v>
       </c>
       <c r="R8" t="n">
-        <v>1285.88412680289</v>
+        <v>644.489017009125</v>
       </c>
       <c r="S8" t="n">
-        <v>1291.78882845384</v>
+        <v>647.448471351419</v>
       </c>
       <c r="T8" t="n">
-        <v>1297.72500506028</v>
+        <v>650.423701036688</v>
       </c>
       <c r="U8" t="n">
-        <v>1303.69265662222</v>
+        <v>653.414706064933</v>
       </c>
       <c r="V8" t="n">
-        <v>1309.67289816636</v>
+        <v>656.412021230368</v>
       </c>
       <c r="W8" t="n">
-        <v>1315.621664755</v>
+        <v>659.393561052828</v>
       </c>
       <c r="X8" t="n">
-        <v>1321.57672633475</v>
+        <v>662.378255943883</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.53178791449</v>
+        <v>665.362950834937</v>
       </c>
       <c r="Z8" t="n">
-        <v>1333.48055450313</v>
+        <v>668.344490657397</v>
       </c>
       <c r="AA8" t="n">
-        <v>1339.40414112738</v>
+        <v>671.313410205476</v>
       </c>
       <c r="AB8" t="n">
-        <v>1345.30884277833</v>
+        <v>674.272864547769</v>
       </c>
       <c r="AC8" t="n">
-        <v>1351.23242940258</v>
+        <v>677.241784095847</v>
       </c>
       <c r="AD8" t="n">
-        <v>1357.19378597342</v>
+        <v>680.229634055497</v>
       </c>
       <c r="AE8" t="n">
-        <v>1363.17402751756</v>
+        <v>683.226949220933</v>
       </c>
       <c r="AF8" t="n">
-        <v>1369.19833399939</v>
+        <v>686.246349866535</v>
       </c>
       <c r="AG8" t="n">
-        <v>1375.28559039221</v>
+        <v>689.297301198088</v>
       </c>
       <c r="AH8" t="n">
-        <v>1381.40432174053</v>
+        <v>692.364027872618</v>
       </c>
       <c r="AI8" t="n">
-        <v>1387.59859298204</v>
+        <v>695.46861537029</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1393.84322415234</v>
+        <v>698.598443416724</v>
       </c>
       <c r="AK8" t="n">
-        <v>1400.13821525143</v>
+        <v>701.753512011919</v>
       </c>
       <c r="AL8" t="n">
-        <v>1406.47727128822</v>
+        <v>704.930666087281</v>
       </c>
       <c r="AM8" t="n">
-        <v>1412.8478022805</v>
+        <v>708.123595505618</v>
       </c>
       <c r="AN8" t="n">
-        <v>1419.19944829949</v>
+        <v>711.30705971817</v>
       </c>
       <c r="AO8" t="n">
-        <v>1425.55109431847</v>
+        <v>714.490523930722</v>
       </c>
       <c r="AP8" t="n">
-        <v>1431.90274033746</v>
+        <v>717.673988143274</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1438.23550138314</v>
+        <v>720.847987150041</v>
       </c>
       <c r="AR8" t="n">
-        <v>1444.53678747334</v>
+        <v>724.006210813831</v>
       </c>
     </row>
     <row r="9">
@@ -1579,130 +1579,130 @@
         <v>204.371</v>
       </c>
       <c r="C9" t="n">
-        <v>279.25</v>
+        <v>252.25</v>
       </c>
       <c r="D9" t="n">
         <v>300.6</v>
       </c>
       <c r="E9" t="n">
-        <v>229.13072093917</v>
+        <v>225.907</v>
       </c>
       <c r="F9" t="n">
-        <v>213.526347798913</v>
+        <v>210.041753543699</v>
       </c>
       <c r="G9" t="n">
-        <v>198.356490338561</v>
+        <v>194.61359749403</v>
       </c>
       <c r="H9" t="n">
-        <v>183.765987118081</v>
+        <v>179.768228653204</v>
       </c>
       <c r="I9" t="n">
-        <v>195.05332023371</v>
+        <v>191.173075942253</v>
       </c>
       <c r="J9" t="n">
-        <v>207.134412660498</v>
+        <v>203.37638597069</v>
       </c>
       <c r="K9" t="n">
-        <v>219.297317297797</v>
+        <v>215.661992988655</v>
       </c>
       <c r="L9" t="n">
-        <v>232.190491336662</v>
+        <v>228.68219662636</v>
       </c>
       <c r="M9" t="n">
-        <v>244.444018155353</v>
+        <v>241.058465892621</v>
       </c>
       <c r="N9" t="n">
-        <v>257.442542078703</v>
+        <v>254.184146750856</v>
       </c>
       <c r="O9" t="n">
-        <v>269.824236712753</v>
+        <v>266.689343292064</v>
       </c>
       <c r="P9" t="n">
-        <v>282.957918960968</v>
+        <v>279.950983357084</v>
       </c>
       <c r="Q9" t="n">
-        <v>284.844085907929</v>
+        <v>281.795549626046</v>
       </c>
       <c r="R9" t="n">
-        <v>286.806748907877</v>
+        <v>283.717065226073</v>
       </c>
       <c r="S9" t="n">
-        <v>288.81461243302</v>
+        <v>285.68404918743</v>
       </c>
       <c r="T9" t="n">
-        <v>290.87981453136</v>
+        <v>287.708711482236</v>
       </c>
       <c r="U9" t="n">
-        <v>291.451894022308</v>
+        <v>288.217324380026</v>
       </c>
       <c r="V9" t="n">
-        <v>292.75943461625</v>
+        <v>289.465756362459</v>
       </c>
       <c r="W9" t="n">
-        <v>293.397880708934</v>
+        <v>290.041129117904</v>
       </c>
       <c r="X9" t="n">
-        <v>294.078000766899</v>
+        <v>290.658422778102</v>
       </c>
       <c r="Y9" t="n">
-        <v>294.496800659144</v>
+        <v>291.010133711366</v>
       </c>
       <c r="Z9" t="n">
-        <v>295.651307724737</v>
+        <v>292.101911257719</v>
       </c>
       <c r="AA9" t="n">
-        <v>296.127696869361</v>
+        <v>292.511552689016</v>
       </c>
       <c r="AB9" t="n">
-        <v>297.337454778916</v>
+        <v>293.658908468723</v>
       </c>
       <c r="AC9" t="n">
-        <v>297.595142232015</v>
+        <v>293.845859479834</v>
       </c>
       <c r="AD9" t="n">
-        <v>297.915546487782</v>
+        <v>294.095898922615</v>
       </c>
       <c r="AE9" t="n">
-        <v>299.004141094796</v>
+        <v>295.118680635758</v>
       </c>
       <c r="AF9" t="n">
-        <v>299.445639584489</v>
+        <v>295.490531857481</v>
       </c>
       <c r="AG9" t="n">
-        <v>300.391349240452</v>
+        <v>296.366851283477</v>
       </c>
       <c r="AH9" t="n">
-        <v>300.676075337083</v>
+        <v>296.578270485873</v>
       </c>
       <c r="AI9" t="n">
-        <v>301.781873147048</v>
+        <v>297.615626669724</v>
       </c>
       <c r="AJ9" t="n">
-        <v>302.968062993265</v>
+        <v>298.733851253592</v>
       </c>
       <c r="AK9" t="n">
-        <v>303.012539459855</v>
+        <v>298.699188872542</v>
       </c>
       <c r="AL9" t="n">
-        <v>303.867913370786</v>
+        <v>299.480228916229</v>
       </c>
       <c r="AM9" t="n">
-        <v>304.048289349683</v>
+        <v>299.582271321318</v>
       </c>
       <c r="AN9" t="n">
-        <v>305.002722720882</v>
+        <v>300.462957803032</v>
       </c>
       <c r="AO9" t="n">
-        <v>305.202246550351</v>
+        <v>300.57698288786</v>
       </c>
       <c r="AP9" t="n">
-        <v>304.694775751631</v>
+        <v>299.979824041214</v>
       </c>
       <c r="AQ9" t="n">
-        <v>304.97107029476</v>
+        <v>300.171074745285</v>
       </c>
       <c r="AR9" t="n">
-        <v>305.271419661473</v>
+        <v>300.386522810024</v>
       </c>
     </row>
   </sheetData>

--- a/results/1-2021/fim-no-addons.xlsx
+++ b/results/1-2021/fim-no-addons.xlsx
@@ -775,130 +775,130 @@
         <v>186.4</v>
       </c>
       <c r="C3" t="n">
-        <v>1228</v>
+        <v>393.066666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>920</v>
+        <v>224.8</v>
       </c>
       <c r="E3" t="n">
-        <v>447.5</v>
+        <v>145.9</v>
       </c>
       <c r="F3" t="n">
-        <v>425.541827611359</v>
+        <v>123.187827611359</v>
       </c>
       <c r="G3" t="n">
-        <v>403.590662097718</v>
+        <v>100.480777097718</v>
       </c>
       <c r="H3" t="n">
-        <v>384.463302243452</v>
+        <v>79.837867818452</v>
       </c>
       <c r="I3" t="n">
-        <v>400.400073851892</v>
+        <v>93.4899486687041</v>
       </c>
       <c r="J3" t="n">
-        <v>419.25263658906</v>
+        <v>109.273410154041</v>
       </c>
       <c r="K3" t="n">
-        <v>438.83431388642</v>
+        <v>125.589838709288</v>
       </c>
       <c r="L3" t="n">
-        <v>457.216633356756</v>
+        <v>141.029562475269</v>
       </c>
       <c r="M3" t="n">
-        <v>474.230585805672</v>
+        <v>155.449384500611</v>
       </c>
       <c r="N3" t="n">
-        <v>490.908718063022</v>
+        <v>169.623729184957</v>
       </c>
       <c r="O3" t="n">
-        <v>508.642285208155</v>
+        <v>184.569574083859</v>
       </c>
       <c r="P3" t="n">
-        <v>526.279903727124</v>
+        <v>199.445282599619</v>
       </c>
       <c r="Q3" t="n">
-        <v>528.882627191482</v>
+        <v>199.260283817746</v>
       </c>
       <c r="R3" t="n">
-        <v>532.061042412812</v>
+        <v>199.496103334721</v>
       </c>
       <c r="S3" t="n">
-        <v>535.767175078031</v>
+        <v>200.117672958973</v>
       </c>
       <c r="T3" t="n">
-        <v>540.240896752548</v>
+        <v>201.300333648356</v>
       </c>
       <c r="U3" t="n">
-        <v>542.788491933077</v>
+        <v>200.518149479221</v>
       </c>
       <c r="V3" t="n">
-        <v>545.240138487444</v>
+        <v>199.665828926945</v>
       </c>
       <c r="W3" t="n">
-        <v>548.075579546459</v>
+        <v>199.094053907234</v>
       </c>
       <c r="X3" t="n">
-        <v>551.342789423203</v>
+        <v>198.837892611658</v>
       </c>
       <c r="Y3" t="n">
-        <v>554.594743939063</v>
+        <v>198.463226983117</v>
       </c>
       <c r="Z3" t="n">
-        <v>557.70277551568</v>
+        <v>197.983356779863</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.530421788512</v>
+        <v>198.029509450169</v>
       </c>
       <c r="AB3" t="n">
-        <v>565.597939626749</v>
+        <v>198.251003078329</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.461436018988</v>
+        <v>198.216850774449</v>
       </c>
       <c r="AD3" t="n">
-        <v>573.181009471984</v>
+        <v>198.077493895857</v>
       </c>
       <c r="AE3" t="n">
-        <v>577.140454490384</v>
+        <v>198.113477975119</v>
       </c>
       <c r="AF3" t="n">
-        <v>581.051925195704</v>
+        <v>198.11439386281</v>
       </c>
       <c r="AG3" t="n">
-        <v>584.705833622461</v>
+        <v>197.819029107406</v>
       </c>
       <c r="AH3" t="n">
-        <v>588.551639301541</v>
+        <v>197.663937118286</v>
       </c>
       <c r="AI3" t="n">
-        <v>592.397444980622</v>
+        <v>197.508845129165</v>
       </c>
       <c r="AJ3" t="n">
-        <v>596.195276346622</v>
+        <v>197.318684948474</v>
       </c>
       <c r="AK3" t="n">
-        <v>599.392930413247</v>
+        <v>196.515441346898</v>
       </c>
       <c r="AL3" t="n">
-        <v>602.590584479872</v>
+        <v>195.712197745322</v>
       </c>
       <c r="AM3" t="n">
-        <v>605.88418717266</v>
+        <v>194.979090526888</v>
       </c>
       <c r="AN3" t="n">
-        <v>608.985892613123</v>
+        <v>194.105710542171</v>
       </c>
       <c r="AO3" t="n">
-        <v>611.017434682727</v>
+        <v>192.162167186594</v>
       </c>
       <c r="AP3" t="n">
-        <v>613.240874004655</v>
+        <v>190.3588965973</v>
       </c>
       <c r="AQ3" t="n">
-        <v>615.224441761177</v>
+        <v>188.380285050153</v>
       </c>
       <c r="AR3" t="n">
-        <v>617.303958143862</v>
+        <v>186.471809886146</v>
       </c>
     </row>
     <row r="4">
@@ -1311,130 +1311,130 @@
         <v>1574.4</v>
       </c>
       <c r="C7" t="n">
-        <v>2906.6</v>
+        <v>3741.53333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>1877</v>
+        <v>2572.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1762.1</v>
+        <v>2063.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1544.73515249899</v>
+        <v>1819.81390083411</v>
       </c>
       <c r="G7" t="n">
-        <v>1370.14840984824</v>
+        <v>1623.62521731378</v>
       </c>
       <c r="H7" t="n">
-        <v>1249.0804590205</v>
+        <v>1487.1097724132</v>
       </c>
       <c r="I7" t="n">
-        <v>1279.29500148861</v>
+        <v>1525.56477563047</v>
       </c>
       <c r="J7" t="n">
-        <v>1285.68541669433</v>
+        <v>1537.45597233026</v>
       </c>
       <c r="K7" t="n">
-        <v>1276.92354978821</v>
+        <v>1532.45243513763</v>
       </c>
       <c r="L7" t="n">
-        <v>1247.18063255755</v>
+        <v>1504.05511083093</v>
       </c>
       <c r="M7" t="n">
-        <v>1246.77812086698</v>
+        <v>1504.76699307077</v>
       </c>
       <c r="N7" t="n">
-        <v>1247.25149788398</v>
+        <v>1506.45548771291</v>
       </c>
       <c r="O7" t="n">
-        <v>1248.32389442376</v>
+        <v>1508.81188672477</v>
       </c>
       <c r="P7" t="n">
-        <v>1251.11260345721</v>
+        <v>1513.08196729581</v>
       </c>
       <c r="Q7" t="n">
-        <v>1264.66448641339</v>
+        <v>1528.86684944985</v>
       </c>
       <c r="R7" t="n">
-        <v>1277.64015412198</v>
+        <v>1544.00925390971</v>
       </c>
       <c r="S7" t="n">
-        <v>1287.92915313228</v>
+        <v>1556.15603352706</v>
       </c>
       <c r="T7" t="n">
-        <v>1296.5713066385</v>
+        <v>1566.46658700053</v>
       </c>
       <c r="U7" t="n">
-        <v>1325.18003050596</v>
+        <v>1601.90736371738</v>
       </c>
       <c r="V7" t="n">
-        <v>1348.36800185033</v>
+        <v>1631.30402307299</v>
       </c>
       <c r="W7" t="n">
-        <v>1366.75391761548</v>
+        <v>1655.34640968285</v>
       </c>
       <c r="X7" t="n">
-        <v>1379.82100716848</v>
+        <v>1673.45832636013</v>
       </c>
       <c r="Y7" t="n">
-        <v>1386.02444994422</v>
+        <v>1682.76288879941</v>
       </c>
       <c r="Z7" t="n">
-        <v>1393.57178828976</v>
+        <v>1693.56588941872</v>
       </c>
       <c r="AA7" t="n">
-        <v>1403.54575553932</v>
+        <v>1707.07457155099</v>
       </c>
       <c r="AB7" t="n">
-        <v>1415.40591500624</v>
+        <v>1722.68635045423</v>
       </c>
       <c r="AC7" t="n">
-        <v>1424.87323909239</v>
+        <v>1735.81378252157</v>
       </c>
       <c r="AD7" t="n">
-        <v>1434.59493437562</v>
+        <v>1749.22483745528</v>
       </c>
       <c r="AE7" t="n">
-        <v>1442.87470763081</v>
+        <v>1761.02815510048</v>
       </c>
       <c r="AF7" t="n">
-        <v>1450.77707340921</v>
+        <v>1772.41066492001</v>
       </c>
       <c r="AG7" t="n">
-        <v>1475.781974677</v>
+        <v>1805.03610228184</v>
       </c>
       <c r="AH7" t="n">
-        <v>1496.74454109932</v>
+        <v>1833.15435247449</v>
       </c>
       <c r="AI7" t="n">
-        <v>1514.38670719203</v>
+        <v>1857.57036959288</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1528.12458061021</v>
+        <v>1877.63311601003</v>
       </c>
       <c r="AK7" t="n">
-        <v>1507.48420345105</v>
+        <v>1853.42810148629</v>
       </c>
       <c r="AL7" t="n">
-        <v>1496.43035510165</v>
+        <v>1839.9120282057</v>
       </c>
       <c r="AM7" t="n">
-        <v>1496.12999730317</v>
+        <v>1838.3860538377</v>
       </c>
       <c r="AN7" t="n">
-        <v>1506.00241094659</v>
+        <v>1848.20267890064</v>
       </c>
       <c r="AO7" t="n">
-        <v>1554.01487176894</v>
+        <v>1906.43925494488</v>
       </c>
       <c r="AP7" t="n">
-        <v>1593.3694927542</v>
+        <v>1955.02237423249</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1619.55194319943</v>
+        <v>1988.91857610285</v>
       </c>
       <c r="AR7" t="n">
-        <v>1635.23053046241</v>
+        <v>2011.1030125773</v>
       </c>
     </row>
     <row r="8">
@@ -1585,7 +1585,7 @@
         <v>300.6</v>
       </c>
       <c r="E9" t="n">
-        <v>225.907</v>
+        <v>303.95</v>
       </c>
       <c r="F9" t="n">
         <v>210.041753543699</v>
